--- a/Hardware/NVDA.xlsx
+++ b/Hardware/NVDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6169BD1-C183-024B-89C6-D06E808CDD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC4217-6159-884B-9225-D3BA4973AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1944,11 +1944,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>146.49</v>
+    <v>148.93</v>
     <v>45.01</v>
-    <v>1.66</v>
-    <v>5.7</v>
-    <v>4.0739999999999998E-2</v>
+    <v>1.6576</v>
+    <v>3.27</v>
+    <v>2.2456999999999998E-2</v>
+    <v>0.56999999999999995</v>
+    <v>3.8290000000000004E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>29600</v>
@@ -1956,24 +1958,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>146.49</v>
+    <v>148.93</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45602.885416666664</v>
+    <v>45604.041650103907</v>
     <v>0</v>
-    <v>141.96</v>
-    <v>3571813300000</v>
+    <v>146.16999999999999</v>
+    <v>3652026400000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>142.96</v>
-    <v>68.3904</v>
-    <v>139.91</v>
+    <v>146.38999999999999</v>
+    <v>69.926900000000003</v>
     <v>145.61000000000001</v>
+    <v>148.88</v>
+    <v>149.44999999999999</v>
     <v>24530000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>109402</v>
-    <v>235272148</v>
+    <v>207323303</v>
+    <v>236080070</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2005,6 +2008,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2025,6 +2030,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2041,7 +2047,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2052,13 +2058,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2124,13 +2133,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2175,6 +2190,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2182,6 +2200,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2882,14 +2903,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>145.61000000000001</v>
+        <v>148.88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>28.551665067945642</v>
+        <v>29.192856914468425</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2929,14 +2950,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.0739999999999998E-2</v>
+        <v>2.2456999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>50.951660437648002</v>
+        <v>52.095894553650396</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2977,14 +2998,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>3571813300000</v>
+        <v>3652026400000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.8198039634378427E-2</v>
+        <v>1.7798337930963477E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3026,7 +3047,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.66</v>
+        <v>1.6576</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3059,7 +3080,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.55051006715917383</v>
+        <v>-0.56038266307796403</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/NVDA.xlsx
+++ b/Hardware/NVDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC4217-6159-884B-9225-D3BA4973AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBACDDF8-3F3C-1F4C-AC3E-F382B77214E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1944,39 +1944,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>148.93</v>
+    <v>149.77000000000001</v>
     <v>45.01</v>
-    <v>1.6576</v>
-    <v>3.27</v>
-    <v>2.2456999999999998E-2</v>
-    <v>0.56999999999999995</v>
-    <v>3.8290000000000004E-3</v>
+    <v>1.6540999999999999</v>
+    <v>6.86</v>
+    <v>4.8947999999999998E-2</v>
+    <v>0.68500000000000005</v>
+    <v>4.6600000000000001E-3</v>
     <v>USD</v>
-    <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
+    <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company is engaged in accelerated computing to help solve the challenging computational problems. The Company’s segments include Compute &amp; Networking and Graphics. The Compute &amp; Networking segment includes its Data Center accelerated computing platforms and artificial intelligence (AI) solutions and software; networking; automotive platforms and autonomous and electric vehicle solutions; Jetson for robotics and other embedded platforms, and DGX Cloud computing services. The Graphics segment includes GeForce GPUs for gaming and PCs, the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU software for cloud-based visual and virtual computing; automotive platforms for infotainment systems, and Omniverse Enterprise software for building and operating three-dimensional Internet applications.</v>
     <v>29600</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>148.93</v>
+    <v>147.13</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45604.041650103907</v>
+    <v>45616.04166430547</v>
     <v>0</v>
-    <v>146.16999999999999</v>
-    <v>3652026400000</v>
+    <v>140.99</v>
+    <v>3606155300000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>146.38999999999999</v>
-    <v>69.926900000000003</v>
-    <v>145.61000000000001</v>
-    <v>148.88</v>
-    <v>149.44999999999999</v>
+    <v>141.32</v>
+    <v>65.825900000000004</v>
+    <v>140.15</v>
+    <v>147.01</v>
+    <v>147.69499999999999</v>
     <v>24530000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>207323303</v>
-    <v>236080070</v>
+    <v>227834912</v>
+    <v>219188013</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2903,14 +2903,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>148.88</v>
+        <v>147.01</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>29.192856914468425</v>
+        <v>28.826181454836131</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2950,14 +2950,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.2456999999999998E-2</v>
+        <v>4.8947999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>52.095894553650396</v>
+        <v>51.441546603520585</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2998,14 +2998,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>3652026400000</v>
+        <v>3606155300000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.7798337930963477E-2</v>
+        <v>1.8024736760505016E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3047,7 +3047,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.6576</v>
+        <v>1.6540999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.56038266307796403</v>
+        <v>-0.55479063246750071</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3759,7 +3759,7 @@
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
-        <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company accelerates computing to help solve the computational problems. The Company’s segments include Compute &amp; Networking and Graphics. Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI), cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; NVIDIA AI Enterprise and other software. The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
+        <v>NVIDIA Corporation is a full-stack computing infrastructure company. The Company is engaged in accelerated computing to help solve the challenging computational problems. The Company’s segments include Compute &amp; Networking and Graphics. The Compute &amp; Networking segment includes its Data Center accelerated computing platforms and artificial intelligence (AI) solutions and software; networking; automotive platforms and autonomous and electric vehicle solutions; Jetson for robotics and other embedded platforms, and DGX Cloud computing services. The Graphics segment includes GeForce GPUs for gaming and PCs, the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU software for cloud-based visual and virtual computing; automotive platforms for infotainment systems, and Omniverse Enterprise software for building and operating three-dimensional Internet applications.</v>
       </c>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
